--- a/학습자료/단답형/국어_기출의지혜_발음.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_발음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,490 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>신문로(발음)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>신문노</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>남대문로(발음)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>남대문노</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>추진력(발음)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>추진녁</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>장맛비(발음)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>장마삐, 장맏삐</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>등불(발음)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>등뿔</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>콧날(발음)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>콘날</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>예삿일(발음)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>예산닐</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>집일(발음)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>짐닐</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>인사말(발음)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>인사말,</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>머리말(발음)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>머리말,</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>꼬리말(발음)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>꼬리말,</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>고무줄(발음)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>고무줄,</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>동아줄(발음)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>동아줄,</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>회-수(回收)(발음)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>회수, 훼수</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>콩-밥(발음)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>콩밥,</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>빨랫줄(발음)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>빨래쭐, 빨랟쭐</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>횟수(回數)(발음)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>회쑤, 홷쑤</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>아침밥(발음)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>아침빱</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>피어(발음)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>피어, 피여</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>되어(발음)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>되어, 되여</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>이오(발음)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>이오, 이요</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>아니오(발음)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>아니오, 아니요</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_발음.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_발음.xlsx
@@ -986,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>회-수(回收)(발음)</t>
+          <t>회수(回收)(발음)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>콩-밥(발음)</t>
+          <t>콩밥(발음)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
